--- a/trunk/WIP/Documents/Design/DataDefinition.xlsx
+++ b/trunk/WIP/Documents/Design/DataDefinition.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ReferenceData" sheetId="2" r:id="rId1"/>
-    <sheet name="CarModel" sheetId="1" r:id="rId2"/>
+    <sheet name="Language" sheetId="3" r:id="rId2"/>
+    <sheet name="Country" sheetId="5" r:id="rId3"/>
+    <sheet name="CarModel" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -145,13 +148,145 @@
   </si>
   <si>
     <t>PT</t>
+  </si>
+  <si>
+    <t>LanuageCode</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>InternationalCode</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Language Code reference</t>
+  </si>
+  <si>
+    <t>http://www.lingoes.net/en/translator/langcode.htm</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Currency code</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/ISO_4217</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>+84</t>
+  </si>
+  <si>
+    <t>+32</t>
+  </si>
+  <si>
+    <t>+86</t>
+  </si>
+  <si>
+    <t>+81</t>
+  </si>
+  <si>
+    <t>+33</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +298,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,16 +340,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +1050,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"insert into Language("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"');"</f>
+        <v>insert into Language(LanuageCode,Language,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('vi','Vietnamese','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H6" si="0">"insert into Language("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"');"</f>
+        <v>insert into Language(LanuageCode,Language,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('en','English','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Language(LanuageCode,Language,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('jp','Japanese','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Language(LanuageCode,Language,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('zh','Chinese','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Language(LanuageCode,Language,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('nl','Dutch','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="str">
+        <f>"insert into Country("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;F1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$J$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",'"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
+        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('VN','Viet Nam',VN,'VND','+84','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K7" si="0">"insert into Country("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;F2&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$J$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
+        <v>insert into Country(Code,Name,PostalCode,Currency,+84,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('GB','England',GB,'GB','+32','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Country(Code,Name,PostalCode,Currency,+32,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('US','America',US,'USD','+1','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Country(Code,Name,PostalCode,Currency,+1,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('CN','China',CN,'ND','+86','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Country(Code,Name,PostalCode,Currency,+86,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('JP','Japan',JP,'JPY','+81','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Country(Code,Name,PostalCode,Currency,+81,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('FR','France',FR,'EUR','+33','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -907,4 +1521,43 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/WIP/Documents/Design/DataDefinition.xlsx
+++ b/trunk/WIP/Documents/Design/DataDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="ReferenceData" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -280,6 +280,84 @@
   </si>
   <si>
     <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>TRIPSTATUS</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Out of service</t>
+  </si>
+  <si>
+    <t>PAYTYPE</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Picking</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected (Không chấp nhận)</t>
+  </si>
+  <si>
+    <t>Picked</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>New Trip</t>
   </si>
 </sst>
 </file>
@@ -632,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,8 +767,8 @@
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -709,7 +787,7 @@
       </c>
       <c r="J2" t="str">
         <f>"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",'"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"');"</f>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('GROUPUSER','RD',1,'Rider','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('GROUPUSER','RD',en,'Rider','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -719,8 +797,8 @@
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -739,7 +817,7 @@
       </c>
       <c r="J3" t="str">
         <f>"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('GROUPUSER','DR',1,'Driver','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('GROUPUSER','DR',en,'Driver','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -749,8 +827,8 @@
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -768,8 +846,8 @@
         <v>13</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J13" si="0">"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"');"</f>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('USERSTATUS','AC',1,'Active','admin','2015-01-20','admin','2015-01-20');</v>
+        <f t="shared" ref="J4:J16" si="0">"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"');"</f>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('USERSTATUS','AC',en,'Active','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -779,8 +857,8 @@
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -799,7 +877,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('USERSTATUS','DA',1,'Deactivated','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('USERSTATUS','DA',en,'Deactivated','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -809,8 +887,8 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -829,7 +907,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('SERVICECHARGE','TB',1,'Trip Base','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('SERVICECHARGE','TB',en,'Trip Base','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -839,8 +917,8 @@
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -859,7 +937,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('SERVICECHARGE','MO',1,'Monthly','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('SERVICECHARGE','MO',en,'Monthly','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -867,73 +945,45 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('DRIVERSTATUS','AC',1,'Available','admin','2015-01-20','admin','2015-01-20');</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('DRIVERSTATUS','BU',1,'Busy','admin','2015-01-20','admin','2015-01-20');</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -949,21 +999,21 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('DRIVERSTATUS','NA',1,'Not Available','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('DRIVERSTATUS','AC',en,'Available','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -979,51 +1029,37 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('BUSINESSTYPE','TS',1,'Taxi Services','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('DRIVERSTATUS','BU',en,'Busy','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('BUSINESSTYPE','PT',1,'Private Taxi','admin','2015-01-20','admin','2015-01-20');</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1039,7 +1075,331 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('BUSINESSTYPE','TT',1,'Truck Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('DRIVERSTATUS','NA',en,'Not Available','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('BUSINESSTYPE','TS',en,'Taxi Services','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('BUSINESSTYPE','PT',en,'Private Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('BUSINESSTYPE','TT',en,'Truck Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/trunk/WIP/Documents/Design/DataDefinition.xlsx
+++ b/trunk/WIP/Documents/Design/DataDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReferenceData" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -48,15 +48,9 @@
     <t>CreatedBy</t>
   </si>
   <si>
-    <t>CreateDate</t>
-  </si>
-  <si>
     <t>LastModifiedBy</t>
   </si>
   <si>
-    <t>LastModifyDate</t>
-  </si>
-  <si>
     <t>SQL Statement</t>
   </si>
   <si>
@@ -358,6 +352,18 @@
   </si>
   <si>
     <t>New Trip</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>CreatedDate</t>
+  </si>
+  <si>
+    <t>LastModifiedDate</t>
   </si>
 </sst>
 </file>
@@ -710,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,11 +727,11 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -748,658 +754,750 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="str">
         <f>"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",'"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"');"</f>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('GROUPUSER','RD',en,'Rider','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','RD',en,'Rider','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" t="str">
-        <f>"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('GROUPUSER','DR',en,'Driver','admin','2015-01-20','admin','2015-01-20');</v>
+        <f t="shared" ref="J3:J25" si="0">"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','DR',en,'Driver','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J16" si="0">"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"');"</f>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('USERSTATUS','AC',en,'Active','admin','2015-01-20','admin','2015-01-20');</v>
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','AC',en,'Active','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('USERSTATUS','DA',en,'Deactivated','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','DA',en,'Deactivated','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('SERVICECHARGE','TB',en,'Trip Base','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','TB',en,'Trip Base','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('SERVICECHARGE','MO',en,'Monthly','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','MO',en,'Monthly','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="I8" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NE',en,'New','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="I9" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AP',en,'Approved','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('DRIVERSTATUS','AC',en,'Available','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AC',en,'Available','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('DRIVERSTATUS','BU',en,'Busy','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','BU',en,'Busy','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','OS',en,'Out of service','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('DRIVERSTATUS','NA',en,'Not Available','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NA',en,'Not Available','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('BUSINESSTYPE','TS',en,'Taxi Services','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TS',en,'Taxi Services','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('BUSINESSTYPE','PT',en,'Private Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','PT',en,'Private Taxi','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('BUSINESSTYPE','TT',en,'Truck Taxi','admin','2015-01-20','admin','2015-01-20');</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TT',en,'Truck Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','NT',en,'New Trip','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','RJ',en,'Rejected (Không chấp nhận)','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PD',en,'Picked','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PI',en,'Picking','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','CA',en,'Cancelled','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','TC',en,'Completed','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','DI',en,'Direct','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','BA',en,'Bank Account','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','CR',en,'Credit Card','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
         <v>108</v>
       </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
         <v>109</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1511,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,9 +1520,9 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1433,145 +1531,145 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" t="str">
         <f>"insert into Language("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"');"</f>
-        <v>insert into Language(LanuageCode,Language,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('vi','Vietnamese','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into Language(LanuageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('vi','Vietnamese','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H6" si="0">"insert into Language("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"');"</f>
-        <v>insert into Language(LanuageCode,Language,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('en','English','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into Language(LanuageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('en','English','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Language(LanuageCode,Language,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('jp','Japanese','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into Language(LanuageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('jp','Japanese','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Language(LanuageCode,Language,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('zh','Chinese','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into Language(LanuageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('zh','Chinese','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Language(LanuageCode,Language,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('nl','Dutch','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into Language(LanuageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('nl','Dutch','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
   </sheetData>
@@ -1583,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1695,7 @@
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1608,229 +1706,229 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K2" t="str">
-        <f>"insert into Country("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;F1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$J$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",'"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
-        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('VN','Viet Nam',VN,'VND','+84','admin','2015-01-20','admin','2015-01-20');</v>
+        <f>"insert into Country("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$J$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",'"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
+        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('VN','Viet Nam',VN,'VND','+84','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K7" si="0">"insert into Country("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;F2&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$J$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
-        <v>insert into Country(Code,Name,PostalCode,Currency,+84,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('GB','England',GB,'GB','+32','admin','2015-01-20','admin','2015-01-20');</v>
+        <f t="shared" ref="K3:K7" si="0">"insert into Country("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$J$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
+        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GB','England',GB,'GB','+32','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Country(Code,Name,PostalCode,Currency,+32,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('US','America',US,'USD','+1','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('US','America',US,'USD','+1','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Country(Code,Name,PostalCode,Currency,+1,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('CN','China',CN,'ND','+86','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('CN','China',CN,'ND','+86','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Country(Code,Name,PostalCode,Currency,+86,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('JP','Japan',JP,'JPY','+81','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('JP','Japan',JP,'JPY','+81','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Country(Code,Name,PostalCode,Currency,+81,CreatedBy,CreateDate,LastModifiedBy,LastModifyDate)  values('FR','France',FR,'EUR','+33','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('FR','France',FR,'EUR','+33','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1873,9 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1895,23 +1991,23 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/WIP/Documents/Design/DataDefinition.xlsx
+++ b/trunk/WIP/Documents/Design/DataDefinition.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\FU\Capstones\201501Spring\TaxiNet\WIP\Documents\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\WIP\Documents\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="ReferenceData" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="111">
   <si>
     <t>#</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>PT</t>
-  </si>
-  <si>
-    <t>LanuageCode</t>
   </si>
   <si>
     <t>Language</t>
@@ -718,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>7</v>
@@ -774,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -804,7 +801,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -834,7 +831,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -864,7 +861,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -894,7 +891,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -924,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -951,13 +948,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
         <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -981,13 +978,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
         <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>102</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1014,7 +1011,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -1044,7 +1041,7 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -1071,13 +1068,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1104,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -1134,7 +1131,7 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -1164,7 +1161,7 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -1194,7 +1191,7 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -1218,16 +1215,16 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
         <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>107</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1248,16 +1245,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1278,16 +1275,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1308,16 +1305,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
         <v>95</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1338,16 +1335,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
         <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1368,16 +1365,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
         <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1398,16 +1395,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>88</v>
       </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1428,16 +1425,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1458,16 +1455,16 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1488,16 +1485,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
         <v>108</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1508,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -1554,10 +1551,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1572,17 +1569,17 @@
         <v>11</v>
       </c>
       <c r="H2" t="str">
-        <f>"insert into Language("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"');"</f>
-        <v>insert into Language(LanuageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('vi','Vietnamese','admin','2015-01-20','admin','2015-01-20');</v>
+        <f>"insert into `taxinet`.`Language`("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"');"</f>
+        <v>insert into `taxinet`.`Language`(LanguageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('vi','Vietnamese','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
@@ -1596,17 +1593,17 @@
         <v>11</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H6" si="0">"insert into Language("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"');"</f>
-        <v>insert into Language(LanuageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('en','English','admin','2015-01-20','admin','2015-01-20');</v>
+        <f t="shared" ref="H3:H6" si="0">"insert into `taxinet`.`Language`("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"');"</f>
+        <v>insert into `taxinet`.`Language`(LanguageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('en','English','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -1621,16 +1618,16 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Language(LanuageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('jp','Japanese','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`Language`(LanguageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('jp','Japanese','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -1645,16 +1642,16 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Language(LanuageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('zh','Chinese','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`Language`(LanguageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('zh','Chinese','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
@@ -1669,7 +1666,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Language(LanuageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('nl','Dutch','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`Language`(LanguageCode,Language,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('nl','Dutch','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
   </sheetData>
@@ -1681,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,6 +1693,7 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1706,28 +1704,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
@@ -1735,19 +1733,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1762,25 +1760,25 @@
         <v>11</v>
       </c>
       <c r="K2" t="str">
-        <f>"insert into Country("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$J$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",'"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
-        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('VN','Viet Nam',VN,'VND','+84','admin','2015-01-20','admin','2015-01-20');</v>
+        <f>"insert into `taxinet`.`Country`("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$J$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"');"</f>
+        <v>insert into `taxinet`.`Country`(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('VN','Viet Nam','VN','VND','+84','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1795,25 +1793,25 @@
         <v>11</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K7" si="0">"insert into Country("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$J$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
-        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GB','England',GB,'GB','+32','admin','2015-01-20','admin','2015-01-20');</v>
+        <f t="shared" ref="K3:K7" si="0">"insert into `taxinet`.`Country`("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;","&amp;$J$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"');"</f>
+        <v>insert into `taxinet`.`Country`(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GB','England','GB','GB','+32','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1829,24 +1827,24 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('US','America',US,'USD','+1','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`Country`(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('US','America','US','USD','+1','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1862,24 +1860,24 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('CN','China',CN,'ND','+86','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`Country`(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('CN','China','CN','ND','+86','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1895,24 +1893,24 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('JP','Japan',JP,'JPY','+81','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`Country`(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('JP','Japan','JP','JPY','+81','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1928,7 +1926,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Country(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('FR','France',FR,'EUR','+33','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`Country`(Code,Name,PostalCode,Currency,InternationalCode,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('FR','France','FR','EUR','+33','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1971,7 +1969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1991,23 +1991,23 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/WIP/Documents/Design/DataDefinition.xlsx
+++ b/trunk/WIP/Documents/Design/DataDefinition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\WIP\Documents\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\FU\Capstones\201501Spring\TaxiNet\WIP\Documents\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="126">
   <si>
     <t>#</t>
   </si>
@@ -361,6 +361,51 @@
   </si>
   <si>
     <t>LastModifiedDate</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Area Staff</t>
+  </si>
+  <si>
+    <t>Country Staff</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Area Manager</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Country Manager</t>
+  </si>
+  <si>
+    <t>Country Administrator</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Global Administrator</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Global Manager</t>
   </si>
 </sst>
 </file>
@@ -713,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,22 +864,22 @@
         <v>11</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J25" si="0">"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
+        <f t="shared" ref="J3:J33" si="0">"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
         <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','DR',en,'Driver','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -850,21 +895,21 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','AC',en,'Active','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AG',en,'Agent','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -880,21 +925,21 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','DA',en,'Deactivated','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AS',en,'Area Staff','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -910,21 +955,21 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','TB',en,'Trip Base','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CS',en,'Country Staff','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -940,21 +985,21 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','MO',en,'Monthly','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AM',en,'Area Manager','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -970,21 +1015,21 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NE',en,'New','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CM',en,'Country Manager','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1000,21 +1045,21 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AP',en,'Approved','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CA',en,'Country Administrator','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1030,21 +1075,21 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AC',en,'Available','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','GM',en,'Global Manager','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1060,21 +1105,21 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','BU',en,'Busy','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','GA',en,'Global Administrator','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1090,21 +1135,21 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','OS',en,'Out of service','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','AC',en,'Active','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1120,21 +1165,21 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NA',en,'Not Available','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','DA',en,'Deactivated','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1150,21 +1195,21 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TS',en,'Taxi Services','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','TB',en,'Trip Base','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1180,21 +1225,21 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','PT',en,'Private Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','MO',en,'Monthly','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1210,21 +1255,21 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TT',en,'Truck Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NE',en,'New','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1240,21 +1285,21 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','NT',en,'New Trip','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AP',en,'Approved','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1270,21 +1315,21 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','RJ',en,'Rejected (Không chấp nhận)','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AC',en,'Available','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1300,21 +1345,21 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PD',en,'Picked','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','BU',en,'Busy','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1330,21 +1375,21 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PI',en,'Picking','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','OS',en,'Out of service','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1360,21 +1405,21 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','CA',en,'Cancelled','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NA',en,'Not Available','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1390,21 +1435,21 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','TC',en,'Completed','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TS',en,'Taxi Services','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1420,21 +1465,21 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','DI',en,'Direct','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','PT',en,'Private Taxi','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1450,21 +1495,21 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','BA',en,'Bank Account','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TT',en,'Truck Taxi','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1480,20 +1525,260 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','CR',en,'Credit Card','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','NT',en,'New Trip','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','RJ',en,'Rejected (Không chấp nhận)','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PD',en,'Picked','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PI',en,'Picking','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','CA',en,'Cancelled','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','TC',en,'Completed','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','DI',en,'Direct','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','BA',en,'Bank Account','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','CR',en,'Credit Card','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
         <v>107</v>
       </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
         <v>108</v>
       </c>
     </row>

--- a/trunk/WIP/Documents/Design/DataDefinition.xlsx
+++ b/trunk/WIP/Documents/Design/DataDefinition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\FU\Capstones\201501Spring\TaxiNet\WIP\Documents\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\WIP\Documents\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="126">
   <si>
     <t>#</t>
   </si>
@@ -761,7 +761,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,8 +834,8 @@
         <v>11</v>
       </c>
       <c r="J2" t="str">
-        <f>"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",'"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"');"</f>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','RD',en,'Rider','admin','2015-01-20','admin','2015-01-20');</v>
+        <f>"insert into `taxinet`.`ReferenceData`("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",'"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"');"</f>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','RD',en,'Rider','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -864,8 +864,8 @@
         <v>11</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J33" si="0">"insert into ReferenceData("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','DR',en,'Driver','admin','2015-01-20','admin','2015-01-20');</v>
+        <f t="shared" ref="J3:J34" si="0">"insert into `taxinet`.`ReferenceData`("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','DR',en,'Driver','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AG',en,'Agent','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AG',en,'Agent','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AS',en,'Area Staff','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AS',en,'Area Staff','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CS',en,'Country Staff','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CS',en,'Country Staff','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AM',en,'Area Manager','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AM',en,'Area Manager','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CM',en,'Country Manager','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CM',en,'Country Manager','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CA',en,'Country Administrator','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CA',en,'Country Administrator','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','GM',en,'Global Manager','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','GM',en,'Global Manager','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','GA',en,'Global Administrator','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','GA',en,'Global Administrator','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','AC',en,'Active','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','AC',en,'Active','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','DA',en,'Deactivated','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','DA',en,'Deactivated','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','TB',en,'Trip Base','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','TB',en,'Trip Base','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','MO',en,'Monthly','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','MO',en,'Monthly','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NE',en,'New','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NE',en,'New','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AP',en,'Approved','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AP',en,'Approved','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AC',en,'Available','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AC',en,'Available','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','BU',en,'Busy','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','BU',en,'Busy','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','OS',en,'Out of service','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','OS',en,'Out of service','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NA',en,'Not Available','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NA',en,'Not Available','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TS',en,'Taxi Services','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TS',en,'Taxi Services','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','PT',en,'Private Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','PT',en,'Private Taxi','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TT',en,'Truck Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TT',en,'Truck Taxi','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','NT',en,'New Trip','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','NT',en,'New Trip','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','RJ',en,'Rejected (Không chấp nhận)','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','RJ',en,'Rejected (Không chấp nhận)','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PD',en,'Picked','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PD',en,'Picked','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PI',en,'Picking','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PI',en,'Picking','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','CA',en,'Cancelled','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','CA',en,'Cancelled','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','TC',en,'Completed','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','TC',en,'Completed','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','DI',en,'Direct','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','DI',en,'Direct','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','BA',en,'Bank Account','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','BA',en,'Bank Account','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ReferenceData(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','CR',en,'Credit Card','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','CR',en,'Credit Card','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -1780,6 +1780,22 @@
       </c>
       <c r="E34" t="s">
         <v>108</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','PP',en,'Paypal','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
   </sheetData>
@@ -1963,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,7 +1994,7 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="150.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">

--- a/trunk/WIP/Documents/Design/DataDefinition.xlsx
+++ b/trunk/WIP/Documents/Design/DataDefinition.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="129">
   <si>
     <t>#</t>
   </si>
@@ -406,6 +406,15 @@
   </si>
   <si>
     <t>Global Manager</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>admn</t>
   </si>
 </sst>
 </file>
@@ -758,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J34" si="0">"insert into `taxinet`.`ReferenceData`("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
+        <f t="shared" ref="J3:J35" si="0">"insert into `taxinet`.`ReferenceData`("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
         <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','DR',en,'Driver','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
@@ -903,16 +912,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -925,7 +934,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AS',en,'Area Staff','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CO',en,'Company','admn','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -933,13 +942,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -955,7 +964,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CS',en,'Country Staff','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AS',en,'Area Staff','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -963,13 +972,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -985,7 +994,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AM',en,'Area Manager','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CS',en,'Country Staff','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,13 +1002,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1015,7 +1024,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CM',en,'Country Manager','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','AM',en,'Area Manager','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1023,13 +1032,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1045,7 +1054,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CA',en,'Country Administrator','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CM',en,'Country Manager','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1053,13 +1062,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1075,7 +1084,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','GM',en,'Global Manager','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','CA',en,'Country Administrator','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1083,13 +1092,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1105,21 +1114,21 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','GA',en,'Global Administrator','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','GM',en,'Global Manager','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1135,7 +1144,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','AC',en,'Active','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','GA',en,'Global Administrator','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1143,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1165,21 +1174,21 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','DA',en,'Deactivated','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','AC',en,'Active','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1195,7 +1204,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','TB',en,'Trip Base','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('USERSTATUS','DA',en,'Deactivated','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1203,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1225,21 +1234,21 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','MO',en,'Monthly','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','TB',en,'Trip Base','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1255,7 +1264,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NE',en,'New','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('SERVICECHARGE','MO',en,'Monthly','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1263,13 +1272,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1285,7 +1294,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AP',en,'Approved','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NE',en,'New','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1293,13 +1302,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1315,7 +1324,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AC',en,'Available','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AP',en,'Approved','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1323,13 +1332,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1345,7 +1354,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','BU',en,'Busy','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','AC',en,'Available','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1353,13 +1362,13 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1375,7 +1384,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','OS',en,'Out of service','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','BU',en,'Busy','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1383,13 +1392,13 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1405,21 +1414,21 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NA',en,'Not Available','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','OS',en,'Out of service','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1435,7 +1444,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TS',en,'Taxi Services','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('DRIVERSTATUS','NA',en,'Not Available','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1443,13 +1452,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1465,7 +1474,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','PT',en,'Private Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TS',en,'Taxi Services','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1473,13 +1482,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1495,21 +1504,21 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TT',en,'Truck Taxi','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','PT',en,'Private Taxi','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1525,7 +1534,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','NT',en,'New Trip','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('BUSINESSTYPE','TT',en,'Truck Taxi','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1533,13 +1542,13 @@
         <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1555,7 +1564,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','RJ',en,'Rejected (Không chấp nhận)','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','NT',en,'New Trip','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1563,13 +1572,13 @@
         <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1585,7 +1594,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PD',en,'Picked','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','RJ',en,'Rejected (Không chấp nhận)','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1593,13 +1602,13 @@
         <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1615,7 +1624,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PI',en,'Picking','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PD',en,'Picked','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1623,13 +1632,13 @@
         <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1645,7 +1654,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','CA',en,'Cancelled','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','PI',en,'Picking','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1653,13 +1662,13 @@
         <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1675,21 +1684,21 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','TC',en,'Completed','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','CA',en,'Cancelled','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1705,7 +1714,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','DI',en,'Direct','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('TRIPSTATUS','TC',en,'Completed','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1713,13 +1722,13 @@
         <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1735,7 +1744,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','BA',en,'Bank Account','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','DI',en,'Direct','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -1743,13 +1752,13 @@
         <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1765,7 +1774,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','CR',en,'Credit Card','admin','2015-01-20','admin','2015-01-20');</v>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','BA',en,'Bank Account','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -1773,27 +1782,57 @@
         <v>87</v>
       </c>
       <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','CR',en,'Credit Card','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
         <v>107</v>
       </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
         <v>108</v>
       </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" t="str">
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="str">
         <f t="shared" si="0"/>
         <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','PP',en,'Paypal','admin','2015-01-20','admin','2015-01-20');</v>
       </c>

--- a/trunk/WIP/Documents/Design/DataDefinition.xlsx
+++ b/trunk/WIP/Documents/Design/DataDefinition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\WIP\Documents\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\FU\Capstones\201501Spring\TaxiNet\WIP\Documents\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="147">
   <si>
     <t>#</t>
   </si>
@@ -415,6 +415,60 @@
   </si>
   <si>
     <t>admn</t>
+  </si>
+  <si>
+    <t>STAFFTYPE</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Longterm Staff</t>
+  </si>
+  <si>
+    <t>Permanent Staff</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Temporary Staff</t>
+  </si>
+  <si>
+    <t>STAFFSTATUS</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -767,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J35" si="0">"insert into `taxinet`.`ReferenceData`("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
+        <f t="shared" ref="J3:J43" si="0">"insert into `taxinet`.`ReferenceData`("&amp;$B$1&amp;","&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;","&amp;$F$1&amp;","&amp;$G$1&amp;","&amp;$H$1&amp;","&amp;$I$1&amp;")  values('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
         <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('GROUPUSER','DR',en,'Driver','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
@@ -1835,6 +1889,246 @@
       <c r="J35" t="str">
         <f t="shared" si="0"/>
         <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('PAYTYPE','PP',en,'Paypal','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('STAFFTYPE','CT',en,'Contractor','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('STAFFTYPE','PM',en,'Permanent Staff','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('STAFFTYPE','LT',en,'Longterm Staff','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('STAFFTYPE','ST',en,'Starter','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('STAFFTYPE','TP',en,'Temporary Staff','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('STAFFSTATUS','LV',en,'Live','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('STAFFSTATUS','LF',en,'Left','admin','2015-01-20','admin','2015-01-20');</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into `taxinet`.`ReferenceData`(GroupCode,Code,LanguageCode,Description,CreatedBy,CreatedDate,LastModifiedBy,LastModifiedDate)  values('STAFFSTATUS','CL',en,'Closed','admin','2015-01-20','admin','2015-01-20');</v>
       </c>
     </row>
   </sheetData>
